--- a/jupyter_notebooks/data/pilot_3_tube_test.xlsx
+++ b/jupyter_notebooks/data/pilot_3_tube_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uflorida.sharepoint.com/teams/Padilla-CoreanoLab/Shared Documents/General/Data/Pilot - C57 vs CD1 Dominance Behavior Comparison/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3301" documentId="8_{BCC38395-F995-4A79-A0B1-972B06176882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{885BAD30-A8A7-49ED-B2D5-552224FDBE8D}"/>
+  <xr:revisionPtr revIDLastSave="3307" documentId="8_{BCC38395-F995-4A79-A0B1-972B06176882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B908D633-D308-4745-9FFD-5EA878179506}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="5" xr2:uid="{02DC76B6-A425-405B-82FD-883EA02AEA00}"/>
   </bookViews>
@@ -41,10 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="88">
-  <si>
-    <t>tube test results</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="87">
   <si>
     <t>runner</t>
   </si>
@@ -672,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B44887B6-6826-4976-B471-8A3DAA1A77B4}">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -687,47 +684,51 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44810</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4">
-        <v>44810</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="E3" s="3">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -738,7 +739,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="3">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="E4" s="3">
         <v>1.3</v>
@@ -752,28 +753,28 @@
         <v>10</v>
       </c>
       <c r="D5" s="3">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E5" s="3">
         <v>1.3</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="E6" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>1.4</v>
+      </c>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3"/>
@@ -782,7 +783,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="3">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E7" s="3">
         <v>1.4</v>
@@ -790,34 +791,34 @@
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44811</v>
+      </c>
       <c r="C8" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E9" s="3">
         <v>1.4</v>
-      </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4">
-        <v>44811</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1.3</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -825,10 +826,10 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D10" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="E10" s="3">
         <v>1.4</v>
@@ -839,13 +840,13 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D11" s="3">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E11" s="3">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -853,10 +854,10 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="E12" s="3">
         <v>1.3</v>
@@ -867,45 +868,45 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D13" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="4">
+        <v>44812</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3">
         <v>1.4</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E14" s="3">
         <v>1.3</v>
       </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1.2</v>
-      </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="4">
-        <v>44812</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="3">
-        <v>1.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E15" s="3">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F15" s="3"/>
     </row>
@@ -913,13 +914,13 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D16" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="E16" s="3">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="F16" s="3"/>
     </row>
@@ -927,13 +928,13 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D17" s="3">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E17" s="3">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -944,7 +945,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="E18" s="3">
         <v>1.4</v>
@@ -958,21 +959,25 @@
         <v>20</v>
       </c>
       <c r="D19" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="4">
+        <v>44813</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="3">
         <v>1.2</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="3">
-        <v>1.1000000000000001</v>
       </c>
       <c r="E20" s="3">
         <v>1.3</v>
@@ -980,20 +985,16 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="4">
-        <v>44813</v>
-      </c>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D21" s="3">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E21" s="3">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="F21" s="3"/>
     </row>
@@ -1001,10 +1002,10 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D22" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="E22" s="3">
         <v>1.4</v>
@@ -1015,13 +1016,13 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E23" s="3">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="F23" s="3"/>
     </row>
@@ -1029,13 +1030,13 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D24" s="3">
         <v>1.1000000000000001</v>
       </c>
       <c r="E24" s="3">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="F24" s="3"/>
     </row>
@@ -1043,42 +1044,42 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D25" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="4">
+        <v>44816</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E26" s="3">
         <v>1.3</v>
       </c>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="3">
         <v>1.2</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="4">
-        <v>44816</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1.1000000000000001</v>
       </c>
       <c r="E27" s="3">
         <v>1.3</v>
@@ -1089,13 +1090,13 @@
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D28" s="3">
         <v>1.2</v>
       </c>
       <c r="E28" s="3">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="F28" s="3"/>
     </row>
@@ -1106,7 +1107,7 @@
         <v>13</v>
       </c>
       <c r="D29" s="3">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E29" s="3">
         <v>1.4</v>
@@ -1117,13 +1118,13 @@
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D30" s="3">
         <v>1.1000000000000001</v>
       </c>
       <c r="E30" s="3">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="F30" s="3"/>
     </row>
@@ -1131,45 +1132,45 @@
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="4">
+        <v>44817</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E32" s="3">
         <v>1.2</v>
       </c>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1.4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1.3</v>
-      </c>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="4">
-        <v>44817</v>
-      </c>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="E33" s="3">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="F33" s="3"/>
     </row>
@@ -1180,10 +1181,10 @@
         <v>9</v>
       </c>
       <c r="D34" s="3">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="E34" s="3">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="F34" s="3"/>
     </row>
@@ -1191,10 +1192,10 @@
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D35" s="3">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="E35" s="3">
         <v>1.4</v>
@@ -1205,13 +1206,13 @@
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D36" s="3">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E36" s="3">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="F36" s="3"/>
     </row>
@@ -1219,45 +1220,45 @@
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D37" s="3">
         <v>1.1000000000000001</v>
       </c>
       <c r="E37" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="4">
+        <v>44819</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="E38" s="3">
         <v>1.3</v>
       </c>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="3">
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E39" s="3">
         <v>1.4</v>
-      </c>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="4">
-        <v>44819</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="3">
-        <v>1.2</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1.3</v>
       </c>
       <c r="F39" s="3"/>
     </row>
@@ -1265,10 +1266,10 @@
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D40" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="E40" s="3">
         <v>1.4</v>
@@ -1279,13 +1280,13 @@
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D41" s="3">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E41" s="3">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="F41" s="3"/>
     </row>
@@ -1293,10 +1294,10 @@
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D42" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="E42" s="3">
         <v>1.3</v>
@@ -1307,45 +1308,45 @@
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D43" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="4">
+        <v>44831</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="E44" s="3">
         <v>1.4</v>
       </c>
-      <c r="E43" s="3">
-        <v>1.3</v>
-      </c>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1.2</v>
-      </c>
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="4">
-        <v>44831</v>
-      </c>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
       <c r="C45" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="3">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E45" s="3">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="F45" s="3"/>
     </row>
@@ -1353,13 +1354,13 @@
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D46" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="E46" s="3">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="F46" s="3"/>
     </row>
@@ -1367,13 +1368,13 @@
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D47" s="3">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E47" s="3">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="F47" s="3"/>
     </row>
@@ -1384,7 +1385,7 @@
         <v>19</v>
       </c>
       <c r="D48" s="3">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="E48" s="3">
         <v>1.4</v>
@@ -1398,36 +1399,32 @@
         <v>20</v>
       </c>
       <c r="D49" s="3">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E49" s="3">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
+      <c r="A50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C50" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D50" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E50" s="3">
-        <v>1.3</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
       <c r="C51" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -1437,7 +1434,7 @@
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -1457,7 +1454,7 @@
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -1467,7 +1464,7 @@
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -1475,7 +1472,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
+      <c r="B56" s="4"/>
       <c r="C56" s="3" t="s">
         <v>8</v>
       </c>
@@ -1485,9 +1482,9 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="3"/>
-      <c r="B57" s="4"/>
+      <c r="B57" s="3"/>
       <c r="C57" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -1497,7 +1494,7 @@
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -1507,7 +1504,7 @@
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -1517,7 +1514,7 @@
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -1527,7 +1524,7 @@
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -1535,17 +1532,16 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
+      <c r="B62" s="4"/>
       <c r="C62" s="3" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="3"/>
-      <c r="B63" s="4"/>
+      <c r="B63" s="3"/>
       <c r="C63" s="3" t="s">
         <v>8</v>
       </c>
@@ -1565,7 +1561,7 @@
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -1583,25 +1579,25 @@
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
+      <c r="B68" s="4"/>
       <c r="C68" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="3"/>
-      <c r="B69" s="4"/>
+      <c r="B69" s="3"/>
       <c r="C69" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -1610,7 +1606,7 @@
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -1619,7 +1615,7 @@
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -1628,7 +1624,7 @@
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -1637,25 +1633,25 @@
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
+      <c r="B74" s="4"/>
       <c r="C74" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="3"/>
-      <c r="B75" s="4"/>
+      <c r="B75" s="3"/>
       <c r="C75" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -1664,7 +1660,7 @@
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -1682,7 +1678,7 @@
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -1691,25 +1687,25 @@
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
+      <c r="B80" s="4"/>
       <c r="C80" s="3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="3"/>
-      <c r="B81" s="4"/>
+      <c r="B81" s="3"/>
       <c r="C81" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -1718,7 +1714,7 @@
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -1727,7 +1723,7 @@
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -1736,7 +1732,7 @@
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -1753,9 +1749,7 @@
     <row r="86" spans="1:5">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
-      <c r="C86" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
     </row>
@@ -1772,13 +1766,6 @@
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1787,10 +1774,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E57C0DCC-AC91-4F56-9307-3212D5E28294}">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -1802,44 +1789,48 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44810</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4">
-        <v>44810</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="3">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E3" s="3">
         <v>2.2000000000000002</v>
@@ -1856,7 +1847,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E4" s="3">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -1867,7 +1858,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="3">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E5" s="3">
         <v>2.4</v>
@@ -1881,10 +1872,10 @@
         <v>26</v>
       </c>
       <c r="D6" s="3">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="E6" s="3">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F6" s="3"/>
     </row>
@@ -1898,39 +1889,39 @@
         <v>2.1</v>
       </c>
       <c r="E7" s="3">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44811</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3">
         <v>2.1</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E9" s="3">
         <v>2.4</v>
-      </c>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4">
-        <v>44811</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E9" s="3">
-        <v>2.2000000000000002</v>
       </c>
       <c r="F9" s="3"/>
     </row>
@@ -1938,10 +1929,10 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="3">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E10" s="3">
         <v>2.4</v>
@@ -1952,13 +1943,13 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="E11" s="3">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F11" s="3"/>
     </row>
@@ -1966,13 +1957,13 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D12" s="3">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E12" s="3">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="F12" s="3"/>
     </row>
@@ -1980,45 +1971,45 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D13" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="4">
+        <v>44812</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E14" s="3">
         <v>2.4</v>
       </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="E14" s="3">
-        <v>2.2000000000000002</v>
-      </c>
       <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="4">
-        <v>44812</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="3">
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="E15" s="3">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F15" s="3"/>
     </row>
@@ -2026,10 +2017,10 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D16" s="3">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E16" s="3">
         <v>2.2000000000000002</v>
@@ -2040,13 +2031,13 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D17" s="3">
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="E17" s="3">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="F17" s="3"/>
     </row>
@@ -2054,10 +2045,10 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D18" s="3">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E18" s="3">
         <v>2.4</v>
@@ -2068,45 +2059,45 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D19" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="4">
+        <v>44813</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E20" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="E21" s="3">
         <v>2.4</v>
-      </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="E20" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="4">
-        <v>44813</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2.2000000000000002</v>
       </c>
       <c r="F21" s="3"/>
     </row>
@@ -2114,10 +2105,10 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D22" s="3">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E22" s="3">
         <v>2.4</v>
@@ -2128,13 +2119,13 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D23" s="3">
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="E23" s="3">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F23" s="3"/>
     </row>
@@ -2142,13 +2133,13 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D24" s="3">
         <v>2.1</v>
       </c>
       <c r="E24" s="3">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F24" s="3"/>
     </row>
@@ -2156,24 +2147,28 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D25" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="4">
+        <v>44816</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="3">
         <v>2.1</v>
-      </c>
-      <c r="E25" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="3">
-        <v>2.2000000000000002</v>
       </c>
       <c r="E26" s="3">
         <v>2.4</v>
@@ -2181,20 +2176,16 @@
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="4">
-        <v>44816</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D27" s="3">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E27" s="3">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F27" s="3"/>
     </row>
@@ -2202,13 +2193,13 @@
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D28" s="3">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E28" s="3">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="F28" s="3"/>
     </row>
@@ -2216,13 +2207,13 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D29" s="3">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="E29" s="3">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F29" s="3"/>
     </row>
@@ -2230,13 +2221,13 @@
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D30" s="3">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E30" s="3">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="F30" s="3"/>
     </row>
@@ -2244,21 +2235,25 @@
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D31" s="3">
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="E31" s="3">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3" t="s">
-        <v>23</v>
+      <c r="A32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="4">
+        <v>44817</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="D32" s="3">
         <v>2.1</v>
@@ -2269,17 +2264,13 @@
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="4">
-        <v>44817</v>
-      </c>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
       <c r="C33" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D33" s="3">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E33" s="3">
         <v>2.2000000000000002</v>
@@ -2296,7 +2287,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E34" s="3">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="F34" s="3"/>
     </row>
@@ -2307,7 +2298,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="3">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E35" s="3">
         <v>2.4</v>
@@ -2321,10 +2312,10 @@
         <v>26</v>
       </c>
       <c r="D36" s="3">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="E36" s="3">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F36" s="3"/>
     </row>
@@ -2338,39 +2329,39 @@
         <v>2.1</v>
       </c>
       <c r="E37" s="3">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
+      <c r="A38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="4">
+        <v>44819</v>
+      </c>
       <c r="C38" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D38" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E38" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="3">
         <v>2.1</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E39" s="3">
         <v>2.4</v>
-      </c>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="4">
-        <v>44819</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E39" s="3">
-        <v>2.2000000000000002</v>
       </c>
       <c r="F39" s="3"/>
     </row>
@@ -2378,10 +2369,10 @@
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D40" s="3">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E40" s="3">
         <v>2.4</v>
@@ -2392,13 +2383,13 @@
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D41" s="3">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="E41" s="3">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F41" s="3"/>
     </row>
@@ -2406,13 +2397,13 @@
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D42" s="3">
-        <v>2.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E42" s="3">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="F42" s="3"/>
     </row>
@@ -2420,45 +2411,45 @@
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D43" s="3">
+        <v>2.1</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="4">
+        <v>44831</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E44" s="3">
         <v>2.4</v>
       </c>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="E44" s="3">
-        <v>2.2000000000000002</v>
-      </c>
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="4">
-        <v>44831</v>
-      </c>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
       <c r="C45" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D45" s="3">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E45" s="3">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="F45" s="3"/>
     </row>
@@ -2466,13 +2457,13 @@
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D46" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E46" s="3">
         <v>2.2000000000000002</v>
-      </c>
-      <c r="E46" s="3">
-        <v>2.1</v>
       </c>
       <c r="F46" s="3"/>
     </row>
@@ -2480,13 +2471,13 @@
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D47" s="3">
-        <v>2.2999999999999998</v>
+        <v>2.1</v>
       </c>
       <c r="E47" s="3">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="F47" s="3"/>
     </row>
@@ -2494,10 +2485,10 @@
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D48" s="3">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E48" s="3">
         <v>2.4</v>
@@ -2508,39 +2499,35 @@
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D49" s="3">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E49" s="3">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
+      <c r="A50" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C50" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D50" s="3">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E50" s="3">
-        <v>2.1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
       <c r="C51" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -2550,7 +2537,7 @@
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -2560,7 +2547,7 @@
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -2570,7 +2557,7 @@
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -2580,7 +2567,7 @@
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -2588,7 +2575,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
+      <c r="B56" s="4"/>
       <c r="C56" s="2" t="s">
         <v>23</v>
       </c>
@@ -2598,9 +2585,9 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="3"/>
-      <c r="B57" s="4"/>
+      <c r="B57" s="3"/>
       <c r="C57" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -2610,7 +2597,7 @@
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -2620,7 +2607,7 @@
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -2630,7 +2617,7 @@
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -2640,7 +2627,7 @@
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -2648,22 +2635,21 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="2" t="s">
-        <v>26</v>
+      <c r="B62" s="4"/>
+      <c r="C62" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
       <c r="F62" s="3"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="3"/>
-      <c r="B63" s="4"/>
+      <c r="B63" s="3"/>
       <c r="C63" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D63" s="3"/>
-      <c r="F63" s="3"/>
+      <c r="E63" s="3"/>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="3"/>
@@ -2687,7 +2673,7 @@
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -2696,25 +2682,25 @@
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
+      <c r="B68" s="4"/>
       <c r="C68" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D68" s="3"/>
-      <c r="F68" s="3"/>
+      <c r="E68" s="3"/>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="3"/>
-      <c r="B69" s="4"/>
+      <c r="B69" s="3"/>
       <c r="C69" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -2723,7 +2709,7 @@
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -2732,7 +2718,7 @@
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -2741,7 +2727,7 @@
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -2750,25 +2736,25 @@
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
+      <c r="B74" s="4"/>
       <c r="C74" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="3"/>
-      <c r="B75" s="4"/>
+      <c r="B75" s="3"/>
       <c r="C75" s="3" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -2777,7 +2763,7 @@
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -2786,7 +2772,7 @@
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -2795,7 +2781,7 @@
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -2804,25 +2790,25 @@
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
+      <c r="B80" s="4"/>
       <c r="C80" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="3"/>
-      <c r="B81" s="4"/>
+      <c r="B81" s="3"/>
       <c r="C81" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -2831,7 +2817,7 @@
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -2840,7 +2826,7 @@
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -2866,9 +2852,7 @@
     <row r="86" spans="1:5">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
-      <c r="C86" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
     </row>
@@ -2934,13 +2918,6 @@
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2949,10 +2926,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A00FD80-D7B8-4AC3-AD77-748760C5E6DB}">
-  <dimension ref="A1:P86"/>
+  <dimension ref="A1:P85"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -2964,11 +2941,21 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -2982,23 +2969,21 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44810</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -3011,12 +2996,8 @@
       <c r="P2" s="3"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4">
-        <v>44810</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
         <v>36</v>
       </c>
@@ -3024,7 +3005,7 @@
         <v>3.2</v>
       </c>
       <c r="E3" s="3">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -3045,10 +3026,10 @@
         <v>37</v>
       </c>
       <c r="D4" s="3">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="E4" s="3">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -3069,7 +3050,7 @@
         <v>38</v>
       </c>
       <c r="D5" s="3">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="E5" s="3">
         <v>3.4</v>
@@ -3093,10 +3074,10 @@
         <v>39</v>
       </c>
       <c r="D6" s="3">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="E6" s="3">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -3117,7 +3098,7 @@
         <v>40</v>
       </c>
       <c r="D7" s="3">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="E7" s="3">
         <v>3.1</v>
@@ -3135,16 +3116,20 @@
       <c r="P7" s="3"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44811</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="3">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="E8" s="3">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -3159,20 +3144,16 @@
       <c r="P8" s="3"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4">
-        <v>44811</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9" s="3">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="E9" s="3">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -3190,13 +3171,13 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10" s="3">
         <v>3.4</v>
       </c>
       <c r="E10" s="3">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -3214,13 +3195,13 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D11" s="3">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="E11" s="3">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -3238,13 +3219,13 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D12" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="E12" s="3">
         <v>3.3</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3.1</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -3262,13 +3243,13 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="3">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="E13" s="3">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -3283,16 +3264,20 @@
       <c r="P13" s="3"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="4">
+        <v>44812</v>
+      </c>
       <c r="C14" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D14" s="3">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="E14" s="3">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -3307,20 +3292,16 @@
       <c r="P14" s="3"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="4">
-        <v>44812</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D15" s="3">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="E15" s="3">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -3338,13 +3319,13 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D16" s="3">
         <v>3.2</v>
       </c>
       <c r="E16" s="3">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -3362,13 +3343,13 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D17" s="3">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="E17" s="3">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -3386,13 +3367,13 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D18" s="3">
         <v>3.4</v>
       </c>
       <c r="E18" s="3">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -3410,13 +3391,13 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D19" s="3">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="E19" s="3">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -3431,16 +3412,20 @@
       <c r="P19" s="3"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="4">
+        <v>44813</v>
+      </c>
       <c r="C20" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D20" s="3">
         <v>3.3</v>
       </c>
       <c r="E20" s="3">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -3455,20 +3440,16 @@
       <c r="P20" s="3"/>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="4">
-        <v>44813</v>
-      </c>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
       <c r="C21" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D21" s="3">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="E21" s="3">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -3486,13 +3467,13 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D22" s="3">
         <v>3.4</v>
       </c>
       <c r="E22" s="3">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -3510,13 +3491,13 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D23" s="3">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="E23" s="3">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -3534,13 +3515,13 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D24" s="3">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="E24" s="3">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -3558,13 +3539,13 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D25" s="3">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="E25" s="3">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -3579,16 +3560,20 @@
       <c r="P25" s="3"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="4">
+        <v>44816</v>
+      </c>
       <c r="C26" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D26" s="3">
         <v>3.4</v>
       </c>
       <c r="E26" s="3">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -3603,20 +3588,16 @@
       <c r="P26" s="3"/>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="4">
-        <v>44816</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D27" s="3">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="E27" s="3">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -3634,13 +3615,13 @@
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D28" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="E28" s="3">
         <v>3.2</v>
-      </c>
-      <c r="E28" s="3">
-        <v>3.3</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -3658,13 +3639,13 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D29" s="3">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="E29" s="3">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -3682,13 +3663,13 @@
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D30" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="E30" s="3">
         <v>3.3</v>
-      </c>
-      <c r="E30" s="3">
-        <v>3.1</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -3706,13 +3687,13 @@
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D31" s="3">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="E31" s="3">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -3727,10 +3708,14 @@
       <c r="P31" s="3"/>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3" t="s">
-        <v>36</v>
+      <c r="A32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="4">
+        <v>44817</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="D32" s="3">
         <v>3.2</v>
@@ -3751,20 +3736,16 @@
       <c r="P32" s="3"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="A33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="4">
-        <v>44817</v>
-      </c>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
       <c r="C33" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D33" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="E33" s="3">
         <v>3.2</v>
-      </c>
-      <c r="E33" s="3">
-        <v>3.1</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -3785,10 +3766,10 @@
         <v>37</v>
       </c>
       <c r="D34" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="E34" s="3">
         <v>3.3</v>
-      </c>
-      <c r="E34" s="3">
-        <v>3.2</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -3812,7 +3793,7 @@
         <v>3.4</v>
       </c>
       <c r="E35" s="3">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -3833,10 +3814,10 @@
         <v>39</v>
       </c>
       <c r="D36" s="3">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="E36" s="3">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -3857,7 +3838,7 @@
         <v>40</v>
       </c>
       <c r="D37" s="3">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="E37" s="3">
         <v>3.1</v>
@@ -3875,44 +3856,34 @@
       <c r="P37" s="3"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
+      <c r="A38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="4">
+        <v>44819</v>
+      </c>
       <c r="C38" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D38" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="E38" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="3">
         <v>3.4</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E39" s="3">
         <v>3.1</v>
-      </c>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="4">
-        <v>44819</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="E39" s="3">
-        <v>3.3</v>
       </c>
       <c r="F39" s="3"/>
     </row>
@@ -3920,13 +3891,13 @@
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D40" s="3">
         <v>3.4</v>
       </c>
       <c r="E40" s="3">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="F40" s="3"/>
     </row>
@@ -3934,13 +3905,13 @@
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D41" s="3">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="E41" s="3">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="F41" s="3"/>
     </row>
@@ -3948,13 +3919,13 @@
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D42" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="E42" s="3">
         <v>3.3</v>
-      </c>
-      <c r="E42" s="3">
-        <v>3.1</v>
       </c>
       <c r="F42" s="3"/>
     </row>
@@ -3962,45 +3933,45 @@
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="4">
+        <v>44831</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="3">
         <v>3.4</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E44" s="3">
         <v>3.3</v>
       </c>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:16">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="E44" s="3">
-        <v>3.1</v>
-      </c>
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="4">
-        <v>44831</v>
-      </c>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
       <c r="C45" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D45" s="3">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="E45" s="3">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="F45" s="3"/>
     </row>
@@ -4008,13 +3979,13 @@
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D46" s="3">
         <v>3.2</v>
       </c>
       <c r="E46" s="3">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="F46" s="3"/>
     </row>
@@ -4022,13 +3993,13 @@
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D47" s="3">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="E47" s="3">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="F47" s="3"/>
     </row>
@@ -4036,13 +4007,13 @@
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D48" s="3">
         <v>3.4</v>
       </c>
       <c r="E48" s="3">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="F48" s="3"/>
     </row>
@@ -4050,39 +4021,35 @@
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D49" s="3">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="E49" s="3">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
+      <c r="A50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C50" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D50" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="E50" s="3">
-        <v>3.1</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
       <c r="C51" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -4092,7 +4059,7 @@
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -4102,7 +4069,7 @@
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -4112,7 +4079,7 @@
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -4122,7 +4089,7 @@
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -4130,7 +4097,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
+      <c r="B56" s="4"/>
       <c r="C56" s="2" t="s">
         <v>36</v>
       </c>
@@ -4140,9 +4107,9 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="3"/>
-      <c r="B57" s="4"/>
+      <c r="B57" s="3"/>
       <c r="C57" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -4152,7 +4119,7 @@
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -4162,7 +4129,7 @@
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -4172,7 +4139,7 @@
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -4182,7 +4149,7 @@
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -4190,9 +4157,9 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="2" t="s">
-        <v>39</v>
+      <c r="B62" s="4"/>
+      <c r="C62" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -4200,7 +4167,7 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="3"/>
-      <c r="B63" s="4"/>
+      <c r="B63" s="3"/>
       <c r="C63" s="3" t="s">
         <v>36</v>
       </c>
@@ -4232,7 +4199,7 @@
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -4242,7 +4209,7 @@
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -4250,9 +4217,9 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
+      <c r="B68" s="4"/>
       <c r="C68" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -4260,9 +4227,9 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="3"/>
-      <c r="B69" s="4"/>
+      <c r="B69" s="3"/>
       <c r="C69" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -4272,7 +4239,7 @@
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -4282,7 +4249,7 @@
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -4292,7 +4259,7 @@
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -4302,7 +4269,7 @@
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -4310,9 +4277,9 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
+      <c r="B74" s="4"/>
       <c r="C74" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -4320,9 +4287,9 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="3"/>
-      <c r="B75" s="4"/>
+      <c r="B75" s="3"/>
       <c r="C75" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -4332,7 +4299,7 @@
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -4342,7 +4309,7 @@
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -4352,7 +4319,7 @@
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -4362,7 +4329,7 @@
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -4370,9 +4337,9 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
+      <c r="B80" s="4"/>
       <c r="C80" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -4380,9 +4347,9 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="3"/>
-      <c r="B81" s="4"/>
+      <c r="B81" s="3"/>
       <c r="C81" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -4392,7 +4359,7 @@
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -4402,7 +4369,7 @@
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -4415,8 +4382,6 @@
         <v>43</v>
       </c>
       <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="3"/>
@@ -4425,14 +4390,6 @@
         <v>44</v>
       </c>
       <c r="D85" s="3"/>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D86" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4441,10 +4398,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96549FBE-90E7-4A95-9443-BD9658F1A23A}">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -4457,48 +4414,52 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="4">
+        <v>44810</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>47</v>
+      </c>
+      <c r="D2" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>4.0999999999999996</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4">
-        <v>44810</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="E3" s="3">
         <v>4.2</v>
-      </c>
-      <c r="E3" s="3">
-        <v>4.0999999999999996</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -4512,7 +4473,7 @@
         <v>4.3</v>
       </c>
       <c r="E4" s="3">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -4523,7 +4484,7 @@
         <v>50</v>
       </c>
       <c r="D5" s="3">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="E5" s="3">
         <v>4.4000000000000004</v>
@@ -4537,10 +4498,10 @@
         <v>51</v>
       </c>
       <c r="D6" s="3">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="E6" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -4551,42 +4512,45 @@
         <v>52</v>
       </c>
       <c r="D7" s="3">
-        <v>4.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E7" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4">
+        <v>44811</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D8" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E9" s="3">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4">
-        <v>44811</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="D9" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="E9" s="3">
-        <v>4.3</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -4594,16 +4558,13 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D10" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="E10" s="3">
         <v>4.4000000000000004</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -4611,13 +4572,13 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D11" s="3">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="E11" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -4625,13 +4586,16 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D12" s="3">
         <v>4.3</v>
       </c>
       <c r="E12" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -4639,48 +4603,45 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D13" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="E13" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="4">
+        <v>44812</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="3">
         <v>4.3</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E14" s="3">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="E14" s="3">
-        <v>4.0999999999999996</v>
-      </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="4">
-        <v>44812</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D15" s="3">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="E15" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G15" s="1"/>
     </row>
@@ -4688,13 +4649,13 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D16" s="3">
         <v>4.2</v>
       </c>
       <c r="E16" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -4702,13 +4663,13 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D17" s="3">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E17" s="3">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G17" s="1"/>
     </row>
@@ -4716,10 +4677,10 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D18" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="E18" s="3">
         <v>4.4000000000000004</v>
@@ -4730,45 +4691,45 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D19" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="E19" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="4">
+        <v>44813</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="3">
         <v>4.2</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E20" s="3">
+        <v>4.3</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E21" s="3">
         <v>4.4000000000000004</v>
-      </c>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="3">
-        <v>4.3</v>
-      </c>
-      <c r="E20" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="4">
-        <v>44813</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="E21" s="3">
-        <v>4.3</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -4776,10 +4737,10 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D22" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="E22" s="3">
         <v>4.4000000000000004</v>
@@ -4790,13 +4751,13 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D23" s="3">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="E23" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G23" s="1"/>
     </row>
@@ -4804,10 +4765,10 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D24" s="3">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="E24" s="3">
         <v>4.0999999999999996</v>
@@ -4818,24 +4779,28 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D25" s="3">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="E25" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="4">
+        <v>44816</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="3">
         <v>4.0999999999999996</v>
-      </c>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="3">
-        <v>4.2</v>
       </c>
       <c r="E26" s="3">
         <v>4.4000000000000004</v>
@@ -4843,20 +4808,16 @@
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="4">
-        <v>44816</v>
-      </c>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D27" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="E27" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="G27" s="1"/>
     </row>
@@ -4864,13 +4825,13 @@
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D28" s="3">
         <v>4.2</v>
       </c>
       <c r="E28" s="3">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G28" s="1"/>
     </row>
@@ -4878,13 +4839,13 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D29" s="3">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E29" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -4892,13 +4853,13 @@
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D30" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="E30" s="3">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -4906,21 +4867,25 @@
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D31" s="3">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="E31" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
+      <c r="A32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="4">
+        <v>44817</v>
+      </c>
       <c r="C32" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D32" s="3">
         <v>4.2</v>
@@ -4928,15 +4893,10 @@
       <c r="E32" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="4">
-        <v>44817</v>
-      </c>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
       <c r="C33" s="3" t="s">
         <v>48</v>
       </c>
@@ -4944,7 +4904,7 @@
         <v>4.2</v>
       </c>
       <c r="E33" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4954,10 +4914,10 @@
         <v>49</v>
       </c>
       <c r="D34" s="3">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="E34" s="3">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4967,7 +4927,7 @@
         <v>50</v>
       </c>
       <c r="D35" s="3">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="E35" s="3">
         <v>4.4000000000000004</v>
@@ -4980,10 +4940,10 @@
         <v>51</v>
       </c>
       <c r="D36" s="3">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E36" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -4996,47 +4956,47 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="E37" s="3">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
+      <c r="A38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="4">
+        <v>44819</v>
+      </c>
       <c r="C38" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D38" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="E38" s="3">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E39" s="3">
         <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="4">
-        <v>44819</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="E39" s="3">
-        <v>4.3</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D40" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="E40" s="3">
         <v>4.4000000000000004</v>
@@ -5046,105 +5006,105 @@
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D41" s="3">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="E41" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D42" s="3">
         <v>4.3</v>
       </c>
       <c r="E42" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D43" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="4">
+        <v>44831</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="3">
         <v>4.3</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E44" s="3">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="E44" s="3">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="4">
-        <v>44831</v>
-      </c>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
       <c r="C45" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D45" s="3">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="E45" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D46" s="3">
         <v>4.2</v>
       </c>
       <c r="E46" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D47" s="3">
-        <v>4.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E47" s="3">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D48" s="3">
-        <v>4.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="E48" s="3">
         <v>4.4000000000000004</v>
@@ -5154,37 +5114,33 @@
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D49" s="3">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="E49" s="3">
-        <v>4.4000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
+      <c r="A50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="C50" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D50" s="3">
-        <v>4.3</v>
-      </c>
-      <c r="E50" s="3">
-        <v>4.0999999999999996</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
       <c r="C51" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -5193,7 +5149,7 @@
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -5202,7 +5158,7 @@
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -5211,7 +5167,7 @@
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -5220,14 +5176,14 @@
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
+      <c r="B56" s="4"/>
       <c r="C56" s="3" t="s">
         <v>48</v>
       </c>
@@ -5236,9 +5192,9 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3"/>
-      <c r="B57" s="4"/>
+      <c r="B57" s="3"/>
       <c r="C57" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -5247,7 +5203,7 @@
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -5256,7 +5212,7 @@
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -5265,7 +5221,7 @@
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -5274,23 +5230,23 @@
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
+      <c r="B62" s="4"/>
       <c r="C62" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="3"/>
-      <c r="B63" s="4"/>
+      <c r="B63" s="3"/>
       <c r="C63" s="3" t="s">
         <v>48</v>
       </c>
@@ -5319,7 +5275,7 @@
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -5328,25 +5284,25 @@
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
+      <c r="B68" s="4"/>
       <c r="C68" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="3"/>
-      <c r="B69" s="4"/>
+      <c r="B69" s="3"/>
       <c r="C69" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -5355,7 +5311,7 @@
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -5364,7 +5320,7 @@
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -5373,7 +5329,7 @@
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -5382,25 +5338,25 @@
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
+      <c r="B74" s="4"/>
       <c r="C74" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="3"/>
-      <c r="B75" s="4"/>
+      <c r="B75" s="3"/>
       <c r="C75" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -5409,7 +5365,7 @@
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -5418,7 +5374,7 @@
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -5427,7 +5383,7 @@
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -5436,25 +5392,25 @@
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
+      <c r="B80" s="4"/>
       <c r="C80" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="3"/>
-      <c r="B81" s="4"/>
+      <c r="B81" s="3"/>
       <c r="C81" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -5463,7 +5419,7 @@
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -5472,7 +5428,7 @@
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -5481,7 +5437,7 @@
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -5493,15 +5449,9 @@
         <v>58</v>
       </c>
       <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D86" s="3"/>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="F88"/>
     </row>
     <row r="89" spans="1:6">
       <c r="F89"/>
@@ -5511,9 +5461,6 @@
     </row>
     <row r="91" spans="1:6">
       <c r="F91"/>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="F92"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5522,10 +5469,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5382D3DA-5037-4EEF-8B36-ECB36871BD0C}">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -5537,42 +5484,45 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="15">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="6">
+        <v>44810</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="15">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="6">
-        <v>44810</v>
-      </c>
       <c r="C3" s="3" t="s">
         <v>62</v>
       </c>
@@ -5580,7 +5530,7 @@
         <v>5.2</v>
       </c>
       <c r="E3" s="3">
-        <v>5.0999999999999996</v>
+        <v>5.3</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -5591,7 +5541,7 @@
         <v>63</v>
       </c>
       <c r="D4" s="3">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="E4" s="3">
         <v>5.3</v>
@@ -5608,7 +5558,7 @@
         <v>5.4</v>
       </c>
       <c r="E5" s="3">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -5619,10 +5569,10 @@
         <v>65</v>
       </c>
       <c r="D6" s="3">
-        <v>5.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E6" s="3">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -5633,44 +5583,44 @@
         <v>66</v>
       </c>
       <c r="D7" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="E7" s="3">
         <v>5.0999999999999996</v>
-      </c>
-      <c r="E7" s="3">
-        <v>5.3</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:8" ht="15">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="6">
+        <v>44811</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D8" s="3">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="E8" s="3">
-        <v>5.0999999999999996</v>
+        <v>5.3</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="1:8" ht="15">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="6">
-        <v>44811</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D9" s="3">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="E9" s="3">
-        <v>5.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -5678,13 +5628,13 @@
     </row>
     <row r="10" spans="1:8" ht="15">
       <c r="C10" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D10" s="3">
         <v>5.4</v>
       </c>
       <c r="E10" s="3">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -5692,13 +5642,13 @@
     </row>
     <row r="11" spans="1:8" ht="15">
       <c r="C11" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D11" s="3">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="E11" s="3">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -5706,13 +5656,13 @@
     </row>
     <row r="12" spans="1:8" ht="15">
       <c r="C12" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D12" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="E12" s="3">
         <v>5.3</v>
-      </c>
-      <c r="E12" s="3">
-        <v>5.0999999999999996</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -5720,47 +5670,47 @@
     </row>
     <row r="13" spans="1:8" ht="15">
       <c r="C13" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D13" s="3">
-        <v>5.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E13" s="3">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" ht="15">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="6">
+        <v>44812</v>
+      </c>
       <c r="C14" s="3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D14" s="3">
-        <v>5.0999999999999996</v>
+        <v>5.4</v>
       </c>
       <c r="E14" s="3">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="15">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="6">
-        <v>44812</v>
-      </c>
       <c r="C15" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D15" s="3">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="E15" s="3">
-        <v>5.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -5768,13 +5718,13 @@
     </row>
     <row r="16" spans="1:8" ht="15">
       <c r="C16" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D16" s="3">
         <v>5.2</v>
       </c>
       <c r="E16" s="3">
-        <v>5.0999999999999996</v>
+        <v>5.3</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -5782,13 +5732,13 @@
     </row>
     <row r="17" spans="1:8" ht="15">
       <c r="C17" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D17" s="3">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="E17" s="3">
-        <v>5.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -5796,13 +5746,13 @@
     </row>
     <row r="18" spans="1:8" ht="15">
       <c r="C18" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D18" s="3">
         <v>5.4</v>
       </c>
       <c r="E18" s="3">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -5810,24 +5760,30 @@
     </row>
     <row r="19" spans="1:8" ht="15">
       <c r="C19" s="3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D19" s="3">
-        <v>5.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E19" s="3">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8" ht="15">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="6">
+        <v>44813</v>
+      </c>
       <c r="C20" s="3" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D20" s="3">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="E20" s="3">
         <v>5.3</v>
@@ -5837,20 +5793,14 @@
       <c r="H20" s="3"/>
     </row>
     <row r="21" spans="1:8" ht="15">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="6">
-        <v>44813</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D21" s="3">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="E21" s="3">
-        <v>5.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -5858,13 +5808,13 @@
     </row>
     <row r="22" spans="1:8" ht="15">
       <c r="C22" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D22" s="3">
         <v>5.4</v>
       </c>
       <c r="E22" s="3">
-        <v>5.0999999999999996</v>
+        <v>5.3</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -5872,13 +5822,13 @@
     </row>
     <row r="23" spans="1:8" ht="15">
       <c r="C23" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D23" s="3">
-        <v>5.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E23" s="3">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -5886,13 +5836,13 @@
     </row>
     <row r="24" spans="1:8" ht="15">
       <c r="C24" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D24" s="3">
         <v>5.0999999999999996</v>
       </c>
       <c r="E24" s="3">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -5900,77 +5850,77 @@
     </row>
     <row r="25" spans="1:8" ht="15">
       <c r="C25" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D25" s="3">
-        <v>5.0999999999999996</v>
+        <v>5.4</v>
       </c>
       <c r="E25" s="3">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:8" ht="15">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="6">
+        <v>44816</v>
+      </c>
       <c r="C26" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D26" s="3">
         <v>5.4</v>
       </c>
       <c r="E26" s="3">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" ht="15">
-      <c r="A27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="6">
-        <v>44816</v>
-      </c>
       <c r="C27" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D27" s="3">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="E27" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="F27" s="3"/>
+        <v>5.3</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" ht="15">
       <c r="C28" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D28" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="E28" s="3">
         <v>5.2</v>
       </c>
-      <c r="E28" s="3">
-        <v>5.3</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:8" ht="15">
       <c r="C29" s="3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D29" s="3">
-        <v>5.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E29" s="3">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -5978,10 +5928,10 @@
     </row>
     <row r="30" spans="1:8" ht="15">
       <c r="C30" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D30" s="3">
-        <v>5.0999999999999996</v>
+        <v>5.4</v>
       </c>
       <c r="E30" s="3">
         <v>5.3</v>
@@ -5992,21 +5942,27 @@
     </row>
     <row r="31" spans="1:8" ht="15">
       <c r="C31" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D31" s="3">
-        <v>5.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E31" s="3">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" ht="15">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="6">
+        <v>44817</v>
+      </c>
       <c r="C32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D32" s="3">
         <v>5.0999999999999996</v>
@@ -6019,20 +5975,14 @@
       <c r="H32" s="3"/>
     </row>
     <row r="33" spans="1:8" ht="15">
-      <c r="A33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="6">
-        <v>44817</v>
-      </c>
       <c r="C33" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D33" s="3">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="E33" s="3">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -6043,7 +5993,7 @@
         <v>63</v>
       </c>
       <c r="D34" s="3">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="E34" s="3">
         <v>5.3</v>
@@ -6060,7 +6010,7 @@
         <v>5.4</v>
       </c>
       <c r="E35" s="3">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -6071,10 +6021,10 @@
         <v>65</v>
       </c>
       <c r="D36" s="3">
-        <v>5.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E36" s="3">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -6085,44 +6035,44 @@
         <v>66</v>
       </c>
       <c r="D37" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="E37" s="3">
         <v>5.0999999999999996</v>
-      </c>
-      <c r="E37" s="3">
-        <v>5.3</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:8" ht="15">
+      <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="6">
+        <v>44819</v>
+      </c>
       <c r="C38" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D38" s="3">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="E38" s="3">
-        <v>5.0999999999999996</v>
+        <v>5.3</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
     </row>
     <row r="39" spans="1:8" ht="15">
-      <c r="A39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="6">
-        <v>44819</v>
-      </c>
       <c r="C39" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D39" s="3">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="E39" s="3">
-        <v>5.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -6130,13 +6080,13 @@
     </row>
     <row r="40" spans="1:8" ht="15">
       <c r="C40" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D40" s="3">
         <v>5.4</v>
       </c>
       <c r="E40" s="3">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -6144,13 +6094,13 @@
     </row>
     <row r="41" spans="1:8" ht="15">
       <c r="C41" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D41" s="3">
-        <v>5.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E41" s="3">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -6158,10 +6108,10 @@
     </row>
     <row r="42" spans="1:8" ht="15">
       <c r="C42" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D42" s="3">
-        <v>5.0999999999999996</v>
+        <v>5.4</v>
       </c>
       <c r="E42" s="3">
         <v>5.3</v>
@@ -6172,47 +6122,47 @@
     </row>
     <row r="43" spans="1:8" ht="15">
       <c r="C43" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D43" s="3">
-        <v>5.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E43" s="3">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
     </row>
     <row r="44" spans="1:8" ht="15">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="6">
+        <v>44831</v>
+      </c>
       <c r="C44" s="3" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D44" s="3">
-        <v>5.0999999999999996</v>
+        <v>5.4</v>
       </c>
       <c r="E44" s="3">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:8" ht="15">
-      <c r="A45" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="6">
-        <v>44831</v>
-      </c>
       <c r="C45" s="3" t="s">
         <v>70</v>
       </c>
       <c r="D45" s="3">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="E45" s="3">
-        <v>5.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -6220,13 +6170,13 @@
     </row>
     <row r="46" spans="1:8" ht="15">
       <c r="C46" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D46" s="3">
         <v>5.2</v>
       </c>
       <c r="E46" s="3">
-        <v>5.0999999999999996</v>
+        <v>5.3</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -6234,13 +6184,13 @@
     </row>
     <row r="47" spans="1:8" ht="15">
       <c r="C47" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D47" s="3">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="E47" s="3">
-        <v>5.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -6248,13 +6198,13 @@
     </row>
     <row r="48" spans="1:8" ht="15">
       <c r="C48" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D48" s="3">
         <v>5.4</v>
       </c>
       <c r="E48" s="3">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -6262,41 +6212,37 @@
     </row>
     <row r="49" spans="1:8" ht="15">
       <c r="C49" s="3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D49" s="3">
-        <v>5.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E49" s="3">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8" ht="15">
+      <c r="A50" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
       <c r="C50" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D50" s="3">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="E50" s="3">
-        <v>5.3</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" ht="15">
-      <c r="A51" t="s">
-        <v>75</v>
-      </c>
-      <c r="B51" t="s">
-        <v>2</v>
-      </c>
       <c r="C51" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -6306,7 +6252,7 @@
     </row>
     <row r="52" spans="1:8" ht="15">
       <c r="C52" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -6316,7 +6262,7 @@
     </row>
     <row r="53" spans="1:8" ht="15">
       <c r="C53" s="3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -6326,7 +6272,7 @@
     </row>
     <row r="54" spans="1:8" ht="15">
       <c r="C54" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -6336,7 +6282,7 @@
     </row>
     <row r="55" spans="1:8" ht="15">
       <c r="C55" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -6356,7 +6302,7 @@
     </row>
     <row r="57" spans="1:8" ht="15">
       <c r="C57" s="3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -6366,7 +6312,7 @@
     </row>
     <row r="58" spans="1:8" ht="15">
       <c r="C58" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -6376,7 +6322,7 @@
     </row>
     <row r="59" spans="1:8" ht="15">
       <c r="C59" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -6386,7 +6332,7 @@
     </row>
     <row r="60" spans="1:8" ht="15">
       <c r="C60" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -6396,7 +6342,7 @@
     </row>
     <row r="61" spans="1:8" ht="15">
       <c r="C61" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -6406,7 +6352,7 @@
     </row>
     <row r="62" spans="1:8" ht="15">
       <c r="C62" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -6446,7 +6392,7 @@
     </row>
     <row r="66" spans="3:8" ht="15">
       <c r="C66" s="3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -6456,7 +6402,7 @@
     </row>
     <row r="67" spans="3:8" ht="15">
       <c r="C67" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -6466,7 +6412,7 @@
     </row>
     <row r="68" spans="3:8" ht="15">
       <c r="C68" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -6476,7 +6422,7 @@
     </row>
     <row r="69" spans="3:8" ht="15">
       <c r="C69" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -6486,7 +6432,7 @@
     </row>
     <row r="70" spans="3:8" ht="15">
       <c r="C70" s="3" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -6496,7 +6442,7 @@
     </row>
     <row r="71" spans="3:8" ht="15">
       <c r="C71" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -6506,7 +6452,7 @@
     </row>
     <row r="72" spans="3:8" ht="15">
       <c r="C72" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -6516,7 +6462,7 @@
     </row>
     <row r="73" spans="3:8" ht="15">
       <c r="C73" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -6526,7 +6472,7 @@
     </row>
     <row r="74" spans="3:8" ht="15">
       <c r="C74" s="3" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -6536,7 +6482,7 @@
     </row>
     <row r="75" spans="3:8" ht="15">
       <c r="C75" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -6546,7 +6492,7 @@
     </row>
     <row r="76" spans="3:8" ht="15">
       <c r="C76" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -6556,7 +6502,7 @@
     </row>
     <row r="77" spans="3:8" ht="15">
       <c r="C77" s="3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -6566,7 +6512,7 @@
     </row>
     <row r="78" spans="3:8" ht="15">
       <c r="C78" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -6576,7 +6522,7 @@
     </row>
     <row r="79" spans="3:8" ht="15">
       <c r="C79" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -6586,7 +6532,7 @@
     </row>
     <row r="80" spans="3:8" ht="15">
       <c r="C80" s="3" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -6596,7 +6542,7 @@
     </row>
     <row r="81" spans="3:8" ht="15">
       <c r="C81" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -6606,7 +6552,7 @@
     </row>
     <row r="82" spans="3:8" ht="15">
       <c r="C82" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -6616,13 +6562,8 @@
     </row>
     <row r="83" spans="3:8" ht="15">
       <c r="C83" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
+        <v>68</v>
+      </c>
     </row>
     <row r="84" spans="3:8" ht="15">
       <c r="C84" s="3" t="s">
@@ -6632,11 +6573,6 @@
     <row r="85" spans="3:8" ht="15">
       <c r="C85" s="3" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="86" spans="3:8" ht="15">
-      <c r="C86" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -6646,10 +6582,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1E51DFB-FD5F-4837-A01F-236F5A2108BD}">
-  <dimension ref="A1:K92"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -6661,11 +6597,21 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -6674,23 +6620,21 @@
     </row>
     <row r="2" spans="1:11" ht="15">
       <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="5">
+        <v>44810</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D2" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -6698,20 +6642,16 @@
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="15">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5">
-        <v>44810</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D3" s="3">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="E3" s="3">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -6727,10 +6667,10 @@
         <v>77</v>
       </c>
       <c r="D4" s="3">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="E4" s="3">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -6746,7 +6686,7 @@
         <v>78</v>
       </c>
       <c r="D5" s="3">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="E5" s="3">
         <v>6.4</v>
@@ -6765,10 +6705,10 @@
         <v>79</v>
       </c>
       <c r="D6" s="3">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="E6" s="3">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -6784,10 +6724,10 @@
         <v>80</v>
       </c>
       <c r="D7" s="3">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="E7" s="3">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -6797,16 +6737,20 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="15">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5">
+        <v>44811</v>
+      </c>
       <c r="C8" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D8" s="3">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="E8" s="3">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -6816,20 +6760,16 @@
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="15">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="5">
-        <v>44811</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D9" s="3">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="E9" s="3">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -6842,10 +6782,10 @@
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D10" s="3">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="E10" s="3">
         <v>6.4</v>
@@ -6861,13 +6801,13 @@
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D11" s="3">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="E11" s="3">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -6880,13 +6820,13 @@
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D12" s="3">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="E12" s="3">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -6899,13 +6839,13 @@
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D13" s="3">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="E13" s="3">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -6915,16 +6855,20 @@
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" ht="15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="5">
+        <v>44812</v>
+      </c>
       <c r="C14" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D14" s="3">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="E14" s="3">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -6934,20 +6878,16 @@
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="15">
-      <c r="A15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="5">
-        <v>44812</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D15" s="3">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="E15" s="3">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -6960,10 +6900,10 @@
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D16" s="3">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="E16" s="3">
         <v>6.2</v>
@@ -6979,13 +6919,13 @@
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D17" s="3">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="E17" s="3">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -6998,10 +6938,10 @@
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D18" s="3">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="E18" s="3">
         <v>6.4</v>
@@ -7017,13 +6957,13 @@
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D19" s="3">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="E19" s="3">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -7033,13 +6973,17 @@
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:11" ht="15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="5">
+        <v>44813</v>
+      </c>
       <c r="C20" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D20" s="3">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="E20" s="3">
         <v>6.3</v>
@@ -7052,20 +6996,16 @@
       <c r="K20" s="3"/>
     </row>
     <row r="21" spans="1:11" ht="15">
-      <c r="A21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="5">
-        <v>44813</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D21" s="3">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="E21" s="3">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -7078,10 +7018,10 @@
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D22" s="3">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="E22" s="3">
         <v>6.4</v>
@@ -7097,13 +7037,13 @@
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D23" s="3">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="E23" s="3">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -7116,13 +7056,13 @@
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D24" s="3">
         <v>6.1</v>
       </c>
       <c r="E24" s="3">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -7135,13 +7075,13 @@
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D25" s="3">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="E25" s="3">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -7151,13 +7091,17 @@
       <c r="K25" s="3"/>
     </row>
     <row r="26" spans="1:11" ht="15">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="5">
+        <v>44816</v>
+      </c>
       <c r="C26" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D26" s="3">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="E26" s="3">
         <v>6.4</v>
@@ -7170,20 +7114,16 @@
       <c r="K26" s="3"/>
     </row>
     <row r="27" spans="1:11" ht="15">
-      <c r="A27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="5">
-        <v>44816</v>
-      </c>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D27" s="3">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="E27" s="3">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -7196,13 +7136,13 @@
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D28" s="3">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="E28" s="3">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -7215,13 +7155,13 @@
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D29" s="3">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="E29" s="3">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -7234,13 +7174,13 @@
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D30" s="3">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="E30" s="3">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -7253,13 +7193,13 @@
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D31" s="3">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="E31" s="3">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -7269,10 +7209,14 @@
       <c r="K31" s="3"/>
     </row>
     <row r="32" spans="1:11" ht="15">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="A32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="4">
+        <v>44817</v>
+      </c>
       <c r="C32" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D32" s="3">
         <v>6.1</v>
@@ -7288,20 +7232,16 @@
       <c r="K32" s="3"/>
     </row>
     <row r="33" spans="1:11" ht="15">
-      <c r="A33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="4">
-        <v>44817</v>
-      </c>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
       <c r="C33" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D33" s="3">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="E33" s="3">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -7317,10 +7257,10 @@
         <v>77</v>
       </c>
       <c r="D34" s="3">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="E34" s="3">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -7336,7 +7276,7 @@
         <v>78</v>
       </c>
       <c r="D35" s="3">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="E35" s="3">
         <v>6.4</v>
@@ -7355,10 +7295,10 @@
         <v>79</v>
       </c>
       <c r="D36" s="3">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="E36" s="3">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -7377,7 +7317,7 @@
         <v>6.1</v>
       </c>
       <c r="E37" s="3">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -7387,16 +7327,20 @@
       <c r="K37" s="3"/>
     </row>
     <row r="38" spans="1:11" ht="15">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
+      <c r="A38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="4">
+        <v>44819</v>
+      </c>
       <c r="C38" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D38" s="3">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="E38" s="3">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -7406,20 +7350,16 @@
       <c r="K38" s="3"/>
     </row>
     <row r="39" spans="1:11" ht="15">
-      <c r="A39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="4">
-        <v>44819</v>
-      </c>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
       <c r="C39" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D39" s="3">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="E39" s="3">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -7432,10 +7372,10 @@
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D40" s="3">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="E40" s="3">
         <v>6.4</v>
@@ -7451,13 +7391,13 @@
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D41" s="3">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="E41" s="3">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -7470,13 +7410,13 @@
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D42" s="3">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="E42" s="3">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -7489,13 +7429,13 @@
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D43" s="3">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="E43" s="3">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -7505,16 +7445,20 @@
       <c r="K43" s="3"/>
     </row>
     <row r="44" spans="1:11" ht="15">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
+      <c r="A44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="4">
+        <v>44831</v>
+      </c>
       <c r="C44" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D44" s="3">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="E44" s="3">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -7524,20 +7468,16 @@
       <c r="K44" s="3"/>
     </row>
     <row r="45" spans="1:11" ht="15">
-      <c r="A45" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B45" s="4">
-        <v>44831</v>
-      </c>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
       <c r="C45" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D45" s="3">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="E45" s="3">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -7550,13 +7490,13 @@
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D46" s="3">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="E46" s="3">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -7569,13 +7509,13 @@
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D47" s="3">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="E47" s="3">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -7588,10 +7528,10 @@
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D48" s="3">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="E48" s="3">
         <v>6.4</v>
@@ -7607,13 +7547,13 @@
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D49" s="3">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="E49" s="3">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -7623,17 +7563,17 @@
       <c r="K49" s="3"/>
     </row>
     <row r="50" spans="1:11" ht="15">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
+      <c r="A50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="C50" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D50" s="3">
-        <v>6.1</v>
-      </c>
-      <c r="E50" s="3">
-        <v>6.3</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -7642,14 +7582,10 @@
       <c r="K50" s="3"/>
     </row>
     <row r="51" spans="1:11" ht="15">
-      <c r="A51" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
       <c r="C51" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -7664,7 +7600,7 @@
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -7679,7 +7615,7 @@
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -7694,7 +7630,7 @@
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -7709,7 +7645,7 @@
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="2" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -7739,7 +7675,7 @@
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -7754,7 +7690,7 @@
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -7769,7 +7705,7 @@
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -7784,7 +7720,7 @@
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
@@ -7799,7 +7735,7 @@
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -7813,8 +7749,8 @@
     <row r="62" spans="1:11" ht="15">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
-      <c r="C62" s="2" t="s">
-        <v>79</v>
+      <c r="C62" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -7874,7 +7810,7 @@
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
@@ -7889,7 +7825,7 @@
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -7904,7 +7840,7 @@
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
@@ -7919,7 +7855,7 @@
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -7934,7 +7870,7 @@
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -7949,7 +7885,7 @@
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
@@ -7964,7 +7900,7 @@
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -7979,7 +7915,7 @@
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -7994,7 +7930,7 @@
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
@@ -8009,7 +7945,7 @@
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -8024,7 +7960,7 @@
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -8039,7 +7975,7 @@
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -8054,7 +7990,7 @@
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
@@ -8069,7 +8005,7 @@
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
@@ -8084,7 +8020,7 @@
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
@@ -8099,7 +8035,7 @@
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -8114,7 +8050,7 @@
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
@@ -8129,7 +8065,7 @@
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
@@ -8173,9 +8109,7 @@
     <row r="86" spans="1:11" ht="15">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
-      <c r="C86" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
@@ -8228,7 +8162,6 @@
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
@@ -8249,44 +8182,12 @@
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="1:11" ht="15">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="66c7fa70-bb82-47de-8c9f-8b3ecea6303f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="05f64c5e-7ec2-4cf0-a148-a77e53878df3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002C00C86E44419345A6E3C05C9040286D" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="65c1c2793603bcc5a4934c5d6e8e8f06">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="05f64c5e-7ec2-4cf0-a148-a77e53878df3" xmlns:ns3="66c7fa70-bb82-47de-8c9f-8b3ecea6303f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d6cc1102e38a8cc84e5ccb56329e356c" ns2:_="" ns3:_="">
     <xsd:import namespace="05f64c5e-7ec2-4cf0-a148-a77e53878df3"/>
@@ -8523,14 +8424,34 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="66c7fa70-bb82-47de-8c9f-8b3ecea6303f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="05f64c5e-7ec2-4cf0-a148-a77e53878df3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12D9BCD4-76F0-4DA5-9A24-B0B69625C09C}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{728403E6-659D-4443-8891-3630BB960494}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F2455FA-D442-46CA-A937-C664AAE89809}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12D9BCD4-76F0-4DA5-9A24-B0B69625C09C}"/>
 </file>